--- a/TEA/TEA_Desalination.xlsx
+++ b/TEA/TEA_Desalination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8BFD23-45FE-47A5-B9B2-8C42DF37E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47E4D36-0B1B-46A9-B745-75EB2425EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desalination" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="155">
   <si>
     <t>Capex</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -527,10 +527,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Flow rate [tonne/h]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>***CACO3 flow - mass flow rate (tonne/hr) - CACO3 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -544,10 +540,6 @@
   </si>
   <si>
     <t>HCl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow rate [tonne/hr]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -589,6 +581,70 @@
   </si>
   <si>
     <t>LEANIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selling price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2 [USD/kg]</t>
+  </si>
+  <si>
+    <t>CH4 [USD/kg]</t>
+  </si>
+  <si>
+    <t>C2H6,C2H4 [USD/kg]</t>
+  </si>
+  <si>
+    <t>C4~C9 (납사) [USD/kg]</t>
+  </si>
+  <si>
+    <t>C10~C16 (디젤) [USD/kg]</t>
+  </si>
+  <si>
+    <t>CaCO3 [USD/kg]</t>
+  </si>
+  <si>
+    <t>MgCO3 [USD/kg]</t>
+  </si>
+  <si>
+    <t>Gypsum [USD/kg]</t>
+  </si>
+  <si>
+    <t>HCL [USD/kg]</t>
+  </si>
+  <si>
+    <t>Electricity [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Cooling price [USD/cal]</t>
+  </si>
+  <si>
+    <t>Heating price [USD/cal]</t>
+  </si>
+  <si>
+    <t>Tonne?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaCO3[ton/h]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MgCO3[ton/h]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow rate [kg/h]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue[USD/yr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCl[tonne/hr]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +657,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +756,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -949,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,8 +1152,6 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1219,6 +1280,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1557,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1584,28 +1649,28 @@
       <c r="B4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="59" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1613,20 +1678,20 @@
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="79">
         <v>20000</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="81">
         <v>2500</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85">
+      <c r="F5" s="82"/>
+      <c r="G5" s="83">
         <v>0.6</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="80">
         <v>1987</v>
       </c>
       <c r="I5" s="2">
@@ -1639,20 +1704,20 @@
       <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="68">
         <v>165000</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="72">
         <v>359263</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6">
         <v>0.6</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="49">
         <v>1998</v>
       </c>
       <c r="I6" s="4">
@@ -1665,20 +1730,20 @@
       <c r="B7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="68">
         <v>20000</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <v>2500</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76">
+      <c r="F7" s="73"/>
+      <c r="G7" s="74">
         <v>0.6</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="65">
         <v>1987</v>
       </c>
       <c r="I7" s="4">
@@ -1691,20 +1756,20 @@
       <c r="B8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="68">
         <v>165000</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="72">
         <v>359263</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8">
         <v>0.6</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="49">
         <v>1998</v>
       </c>
       <c r="I8" s="4">
@@ -1717,20 +1782,20 @@
       <c r="B9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="68">
         <v>147800</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <v>461492</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="74">
+      <c r="F9" s="73"/>
+      <c r="G9" s="72">
         <v>0.5</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="65">
         <v>1997</v>
       </c>
       <c r="I9" s="4">
@@ -1743,20 +1808,20 @@
       <c r="B10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="68">
         <v>20000</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="72">
         <v>2500</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74">
         <v>0.6</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="65">
         <v>1987</v>
       </c>
       <c r="I10" s="4">
@@ -1769,20 +1834,20 @@
       <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="68">
         <v>20000</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <v>2500</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76">
+      <c r="F11" s="73"/>
+      <c r="G11" s="74">
         <v>0.6</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="65">
         <v>1987</v>
       </c>
       <c r="I11" s="4">
@@ -1792,22 +1857,22 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49">
         <v>2001</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="64">
         <v>7801.6</v>
       </c>
       <c r="J12" t="s">
@@ -1818,23 +1883,23 @@
       <c r="B13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="63">
         <v>1700</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49">
         <v>9.7249999999999993E-3</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="49">
         <v>0.6</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="49">
         <v>2018</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="85">
         <f>C13*F13</f>
         <v>16.532499999999999</v>
       </c>
@@ -1847,22 +1912,22 @@
       <c r="C14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="84" t="s">
         <v>109</v>
       </c>
       <c r="J14" s="4"/>
@@ -1877,7 +1942,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="80">
+      <c r="I15" s="78">
         <f>SUM(I5:I14)</f>
         <v>7818.1325000000006</v>
       </c>
@@ -1898,55 +1963,65 @@
       <c r="D22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="89" t="s">
-        <v>125</v>
+      <c r="F22" s="87" t="s">
+        <v>124</v>
       </c>
       <c r="G22" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="44" t="s">
         <v>127</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="42">
         <f>C23*IF(C23&gt;0,$C$40,$C$39)*$C$37</f>
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="93">
-        <v>15</v>
-      </c>
-      <c r="I23" s="96">
-        <f>G23*H23*D37</f>
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="G23" s="88">
+        <v>3</v>
+      </c>
+      <c r="H23" s="91">
+        <f>'Desalination Revenue'!O13</f>
+        <v>15000</v>
+      </c>
+      <c r="I23" s="94">
+        <f>G24*H23*D37</f>
+        <v>382500</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="71"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="42">
         <f t="shared" ref="D24:D29" si="0">C24*IF(C24&gt;0,$C$40,$C$39)*$C$37</f>
         <v>0</v>
       </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24">
+        <f>G23*0.001</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="71"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1956,38 +2031,38 @@
       <c r="B26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="H26" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="97"/>
+        <v>129</v>
+      </c>
+      <c r="G27" s="95"/>
       <c r="H27" s="8">
         <v>2.93</v>
       </c>
@@ -1996,22 +2071,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="98"/>
+        <v>134</v>
+      </c>
+      <c r="G28" s="96"/>
       <c r="H28">
         <v>2.93</v>
       </c>
@@ -2024,19 +2099,19 @@
       <c r="B29" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="99"/>
+        <v>135</v>
+      </c>
+      <c r="G29" s="97"/>
       <c r="H29" s="6">
         <v>2.93</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2045,16 +2120,16 @@
       <c r="B30" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="70" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="89"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="94">
+      <c r="I30" s="92">
         <f>SUM(I27:I29)</f>
         <v>0</v>
       </c>
@@ -2063,7 +2138,7 @@
       <c r="B31" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="70" t="s">
         <v>109</v>
       </c>
       <c r="D31" s="42" t="s">
@@ -2075,7 +2150,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="44"/>
-      <c r="D32" s="62">
+      <c r="D32" s="60">
         <f>SUM(D23:D31)</f>
         <v>0</v>
       </c>
@@ -2094,33 +2169,36 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="64">
-        <v>0.06</v>
+      <c r="C38" s="62">
+        <f>'Desalination Revenue'!O14</f>
+        <v>0.17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="47">
-        <v>-8.8900000000000003E-10</v>
+      <c r="C39" s="101">
+        <f>(-1)*'Desalination Revenue'!O15</f>
+        <v>-2.7577399999999999E-7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="48">
-        <v>7.9500000000000001E-9</v>
+      <c r="C40" s="102">
+        <f>'Desalination Revenue'!O16</f>
+        <v>2.7577399999999999E-7</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2273,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="35"/>
-      <c r="K5" s="52"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
@@ -2210,7 +2288,7 @@
       <c r="J6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <f>SUM(E29*0.01)</f>
         <v>260.60441666666668</v>
       </c>
@@ -2233,7 +2311,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
@@ -2255,7 +2333,7 @@
       <c r="J8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="52" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2279,9 +2357,9 @@
       <c r="J9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="61">
         <f>Desalination!D32+Desalination!I23</f>
-        <v>0</v>
+        <v>382500</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -2302,9 +2380,9 @@
         <v>62</v>
       </c>
       <c r="J10" s="37"/>
-      <c r="K10" s="55">
+      <c r="K10" s="53">
         <f>Desalination!H23</f>
-        <v>15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -2327,7 +2405,7 @@
       <c r="J11" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="93">
         <f>Desalination!I30</f>
         <v>0</v>
       </c>
@@ -2343,7 +2421,7 @@
       <c r="J12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="54">
         <f>SUM(K6*0.04)</f>
         <v>10.424176666666668</v>
       </c>
@@ -2361,9 +2439,9 @@
       <c r="J13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="51">
         <f>SUM(K25*0.15)</f>
-        <v>89.179582953970652</v>
+        <v>120721.95651770358</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2386,9 +2464,9 @@
       <c r="J14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <f>SUM(K13*0.3)</f>
-        <v>26.753874886191195</v>
+        <v>36216.586955311075</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2411,7 +2489,7 @@
       <c r="J15" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="51">
         <f>SUM(K12*0.15)</f>
         <v>1.5636265</v>
       </c>
@@ -2436,9 +2514,9 @@
       <c r="J16" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="51">
         <f>SUM(K13*0.15)</f>
-        <v>13.376937443095597</v>
+        <v>18108.293477655538</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
@@ -2457,7 +2535,7 @@
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="53"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="23"/>
@@ -2470,9 +2548,9 @@
       <c r="J18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="51">
         <f>SUM(0.6*K29)</f>
-        <v>75.814580704097111</v>
+        <v>94169.380589808788</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
@@ -2487,7 +2565,7 @@
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="37"/>
-      <c r="K19" s="53"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="23"/>
@@ -2498,7 +2576,7 @@
         <v>75</v>
       </c>
       <c r="J20" s="37"/>
-      <c r="K20" s="53"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="19" t="s">
@@ -2513,9 +2591,9 @@
       <c r="J21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="51">
         <f>SUM(K13*0.175)</f>
-        <v>15.606427016944863</v>
+        <v>21126.342390598125</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
@@ -2538,9 +2616,9 @@
       <c r="J22" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="51">
         <f>SUM(K25*0.11)</f>
-        <v>65.398360832911806</v>
+        <v>88529.434779649295</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -2563,9 +2641,9 @@
       <c r="J23" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="51">
         <f>SUM(K25*0.035)</f>
-        <v>20.808569355926487</v>
+        <v>28168.456520797507</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -2584,7 +2662,7 @@
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="53"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="23" t="s">
@@ -2604,9 +2682,9 @@
         <v>82</v>
       </c>
       <c r="J25" s="28"/>
-      <c r="K25" s="57">
+      <c r="K25" s="55">
         <f>SUM(K27/0.49425)</f>
-        <v>594.53055302647101</v>
+        <v>804813.04345135728</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -2616,7 +2694,7 @@
       <c r="E26" s="23"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="58"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="19" t="s">
@@ -2630,9 +2708,9 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="58">
+      <c r="K27" s="56">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>293.84672583333332</v>
+        <v>397778.84672583337</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
@@ -2642,7 +2720,7 @@
       <c r="E28" s="23"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="59"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="23" t="s">
@@ -2662,9 +2740,9 @@
       <c r="J29" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="59">
+      <c r="K29" s="57">
         <f>(K12+K13+K14)</f>
-        <v>126.35763450682852</v>
+        <v>156948.96764968132</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
@@ -2683,9 +2761,9 @@
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
-      <c r="K30" s="60">
+      <c r="K30" s="58">
         <f>SUM(K6:K23)</f>
-        <v>594.53055302647101</v>
+        <v>804813.04345135717</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
@@ -2744,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2756,74 +2834,191 @@
     <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="14" max="14" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="89" t="s">
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="87" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>120</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="89">
+        <v>10</v>
+      </c>
       <c r="D6">
-        <v>300</v>
+        <f>O10*1000</f>
+        <v>370</v>
       </c>
       <c r="E6" s="4">
-        <f>C6*C11*D6</f>
-        <v>0</v>
+        <f>C9*C11*D6</f>
+        <v>31450</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="41">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="90">
+        <v>100</v>
+      </c>
       <c r="D7" s="6">
+        <f>O11*1000</f>
         <v>700</v>
       </c>
-      <c r="E7" s="69">
-        <f>C7*C11*D7</f>
-        <v>0</v>
+      <c r="E7" s="67">
+        <f>C10*C11*D7</f>
+        <v>595000</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="41">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="87" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
-      <c r="E8" s="100"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="98">
+        <f>SUM(E6:E7)</f>
+        <v>626450</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="41">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <f>C6*0.001</f>
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="41">
+        <v>1.4916666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10">
+        <f>C7*0.001</f>
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="41">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>121</v>
       </c>
       <c r="C11">
         <v>8500</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="99">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N12" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" s="99">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N14" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" s="41">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N15" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="100">
+        <v>2.7577399999999999E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N16" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="100">
+        <v>2.7577399999999999E-7</v>
       </c>
     </row>
   </sheetData>
